--- a/case3_Borate/Excel_Files/Illovo_waste_water/_borate_UBK_530_Illovo.xlsx
+++ b/case3_Borate/Excel_Files/Illovo_waste_water/_borate_UBK_530_Illovo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\Illovo_waste_water\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/Illovo_waste_water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECC813-E316-412B-9DB1-032243A2A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B9ECC813-E316-412B-9DB1-032243A2A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA72FB8-D721-4012-ACDF-73CAA3CC4518}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="996" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -1164,6 +1164,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1171,7 +1172,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,7 +2172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2206,24 +2206,24 @@
         <v>20</v>
       </c>
       <c r="J2" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
         <f>I2/J2</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="L2" s="10">
-        <f>3190.078/1000000</f>
-        <v>3.1900779999999998E-3</v>
+        <v>0.4</v>
+      </c>
+      <c r="L2">
+        <f>L3*1.4</f>
+        <v>4.4661091999999994E-3</v>
       </c>
       <c r="M2" s="9">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="N2" s="11">
         <v>2</v>
       </c>
       <c r="O2" s="11">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="1">
         <v>60</v>
@@ -2244,7 +2244,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2269,10 @@
         <f t="shared" ref="G3:G27" si="3">F3*(1/1000)</f>
         <v>1.66E-6</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="10">
+        <f>3190.078/1000000</f>
+        <v>3.1900779999999998E-3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -3041,6 +3044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -3297,16 +3309,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3323,12 +3334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>